--- a/gdp_revisions_analysis/output/tables/unbiassdness_e_q.xlsx
+++ b/gdp_revisions_analysis/output/tables/unbiassdness_e_q.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fb59f80414e38fcc/Documentos/Research Assistant/CIUP/GDP Revisions/GitHub/peru_gdp_revisions/gdp_revisions_analysis/output/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="346" documentId="6_{5B9145E5-6E78-4DD8-B3D2-2EBAEA7E231B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B110F0A-AC88-468E-92A7-FB84147AF7DE}"/>
+  <xr:revisionPtr revIDLastSave="352" documentId="6_{5B9145E5-6E78-4DD8-B3D2-2EBAEA7E231B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1A4D9C1-5E06-41DB-9747-E07D834EF868}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{59A818B8-AC1C-48B4-9EC6-7BF703468C77}"/>
   </bookViews>
@@ -41,18 +41,9 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>N° de observaciones</t>
-  </si>
-  <si>
     <t>Media</t>
   </si>
   <si>
-    <t>Desviación Estándar</t>
-  </si>
-  <si>
-    <t>Percentil 1</t>
-  </si>
-  <si>
     <t>Percentil 25</t>
   </si>
   <si>
@@ -62,12 +53,6 @@
     <t>Percentil 75</t>
   </si>
   <si>
-    <t>Percentil 99</t>
-  </si>
-  <si>
-    <t>Horizonte (h)</t>
-  </si>
-  <si>
     <t>PBI</t>
   </si>
   <si>
@@ -438,6 +423,21 @@
   </si>
   <si>
     <t>-0.110*</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P99</t>
   </si>
 </sst>
 </file>
@@ -518,7 +518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -543,12 +543,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -886,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{496513D8-45F4-412F-B325-A911B1FC58A0}">
   <dimension ref="A1:J361"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="A324" sqref="A324:A361"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A290" workbookViewId="0">
+      <selection sqref="A1:I361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -903,31 +897,31 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="I1" s="3" t="s">
-        <v>8</v>
+        <v>133</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>0</v>
@@ -935,7 +929,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -954,7 +948,7 @@
         <v>120</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D3" s="5">
         <v>0.42899999999999999</v>
@@ -986,7 +980,7 @@
         <v>119</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2">
         <v>0.439</v>
@@ -1018,7 +1012,7 @@
         <v>118</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2">
         <v>0.442</v>
@@ -1914,7 +1908,7 @@
         <v>49</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D33" s="2">
         <v>7.0999999999999994E-2</v>
@@ -1946,7 +1940,7 @@
         <v>47</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D34" s="2">
         <v>7.0999999999999994E-2</v>
@@ -2196,7 +2190,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -2215,7 +2209,7 @@
         <v>120</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D43" s="2">
         <v>1.006</v>
@@ -2247,7 +2241,7 @@
         <v>119</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D44" s="2">
         <v>1.03</v>
@@ -2279,7 +2273,7 @@
         <v>118</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D45" s="2">
         <v>1.018</v>
@@ -2311,7 +2305,7 @@
         <v>118</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D46" s="2">
         <v>0.90200000000000002</v>
@@ -2343,7 +2337,7 @@
         <v>117</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D47" s="2">
         <v>0.90600000000000003</v>
@@ -2375,7 +2369,7 @@
         <v>111</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D48" s="2">
         <v>0.89400000000000002</v>
@@ -2407,7 +2401,7 @@
         <v>111</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D49" s="2">
         <v>0.79700000000000004</v>
@@ -2439,7 +2433,7 @@
         <v>110</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D50" s="2">
         <v>0.79700000000000004</v>
@@ -2471,7 +2465,7 @@
         <v>108</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D51" s="2">
         <v>0.79700000000000004</v>
@@ -2503,7 +2497,7 @@
         <v>108</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D52" s="2">
         <v>0.75600000000000001</v>
@@ -2535,7 +2529,7 @@
         <v>107</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D53" s="2">
         <v>0.755</v>
@@ -2567,7 +2561,7 @@
         <v>105</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D54" s="2">
         <v>0.76300000000000001</v>
@@ -2599,7 +2593,7 @@
         <v>105</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D55" s="2">
         <v>0.72899999999999998</v>
@@ -2631,7 +2625,7 @@
         <v>103</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D56" s="2">
         <v>0.72899999999999998</v>
@@ -2663,7 +2657,7 @@
         <v>102</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D57" s="2">
         <v>0.73199999999999998</v>
@@ -2695,7 +2689,7 @@
         <v>102</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D58" s="2">
         <v>0.70699999999999996</v>
@@ -2727,7 +2721,7 @@
         <v>101</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D59" s="2">
         <v>0.65400000000000003</v>
@@ -2759,7 +2753,7 @@
         <v>95</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D60" s="2">
         <v>0.66300000000000003</v>
@@ -2791,7 +2785,7 @@
         <v>95</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D61" s="2">
         <v>0.65200000000000002</v>
@@ -2823,7 +2817,7 @@
         <v>94</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D62" s="2">
         <v>0.627</v>
@@ -2855,7 +2849,7 @@
         <v>92</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D63" s="2">
         <v>0.60399999999999998</v>
@@ -2887,7 +2881,7 @@
         <v>92</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D64" s="2">
         <v>0.50800000000000001</v>
@@ -2919,7 +2913,7 @@
         <v>91</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D65" s="2">
         <v>0.35</v>
@@ -2951,7 +2945,7 @@
         <v>89</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D66" s="2">
         <v>0.32900000000000001</v>
@@ -3457,7 +3451,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -3476,7 +3470,7 @@
         <v>120</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D83" s="2">
         <v>5.5039999999999996</v>
@@ -3508,7 +3502,7 @@
         <v>119</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D84" s="2">
         <v>5.585</v>
@@ -3540,7 +3534,7 @@
         <v>118</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D85" s="2">
         <v>6.2489999999999997</v>
@@ -3572,7 +3566,7 @@
         <v>118</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D86" s="2">
         <v>4.8929999999999998</v>
@@ -3604,7 +3598,7 @@
         <v>117</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D87" s="2">
         <v>4.9050000000000002</v>
@@ -3636,7 +3630,7 @@
         <v>111</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D88" s="2">
         <v>4.8239999999999998</v>
@@ -3668,7 +3662,7 @@
         <v>111</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D89" s="2">
         <v>4.6749999999999998</v>
@@ -3700,7 +3694,7 @@
         <v>110</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D90" s="2">
         <v>4.6900000000000004</v>
@@ -3732,7 +3726,7 @@
         <v>108</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D91" s="2">
         <v>4.6390000000000002</v>
@@ -3764,7 +3758,7 @@
         <v>108</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D92" s="2">
         <v>4.5960000000000001</v>
@@ -3796,7 +3790,7 @@
         <v>107</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D93" s="2">
         <v>4.585</v>
@@ -3828,7 +3822,7 @@
         <v>105</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D94" s="2">
         <v>4.0590000000000002</v>
@@ -3860,7 +3854,7 @@
         <v>105</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D95" s="2">
         <v>3.758</v>
@@ -3892,7 +3886,7 @@
         <v>103</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D96" s="2">
         <v>3.7719999999999998</v>
@@ -3924,7 +3918,7 @@
         <v>102</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D97" s="2">
         <v>3.8239999999999998</v>
@@ -3956,7 +3950,7 @@
         <v>102</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D98" s="2">
         <v>2.867</v>
@@ -3988,7 +3982,7 @@
         <v>101</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D99" s="2">
         <v>2.7170000000000001</v>
@@ -4020,7 +4014,7 @@
         <v>95</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D100" s="2">
         <v>2.6920000000000002</v>
@@ -4052,7 +4046,7 @@
         <v>95</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D101" s="2">
         <v>2.3959999999999999</v>
@@ -4084,7 +4078,7 @@
         <v>94</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D102" s="2">
         <v>2.4180000000000001</v>
@@ -4116,7 +4110,7 @@
         <v>92</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D103" s="2">
         <v>2.411</v>
@@ -4308,7 +4302,7 @@
         <v>83</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D109" s="2">
         <v>1.19</v>
@@ -4340,7 +4334,7 @@
         <v>72</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D110" s="2">
         <v>0.89900000000000002</v>
@@ -4718,7 +4712,7 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -4737,7 +4731,7 @@
         <v>120</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D123" s="2">
         <v>0.70699999999999996</v>
@@ -4769,7 +4763,7 @@
         <v>119</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D124" s="2">
         <v>0.70599999999999996</v>
@@ -4801,7 +4795,7 @@
         <v>118</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D125" s="2">
         <v>0.70699999999999996</v>
@@ -4833,7 +4827,7 @@
         <v>118</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D126" s="2">
         <v>0.63</v>
@@ -4865,7 +4859,7 @@
         <v>117</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D127" s="2">
         <v>0.65200000000000002</v>
@@ -4897,7 +4891,7 @@
         <v>111</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D128" s="2">
         <v>0.63500000000000001</v>
@@ -4929,7 +4923,7 @@
         <v>111</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D129" s="2">
         <v>0.55700000000000005</v>
@@ -4961,7 +4955,7 @@
         <v>110</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D130" s="2">
         <v>0.56100000000000005</v>
@@ -4993,7 +4987,7 @@
         <v>108</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D131" s="2">
         <v>0.54800000000000004</v>
@@ -5979,7 +5973,7 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
@@ -5998,7 +5992,7 @@
         <v>120</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D163" s="2">
         <v>0.82499999999999996</v>
@@ -6030,7 +6024,7 @@
         <v>119</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D164" s="2">
         <v>0.82599999999999996</v>
@@ -6062,7 +6056,7 @@
         <v>118</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D165" s="2">
         <v>0.82099999999999995</v>
@@ -6094,7 +6088,7 @@
         <v>118</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D166" s="2">
         <v>0.66700000000000004</v>
@@ -6126,7 +6120,7 @@
         <v>117</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D167" s="2">
         <v>0.66200000000000003</v>
@@ -6158,7 +6152,7 @@
         <v>111</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D168" s="2">
         <v>0.64700000000000002</v>
@@ -6190,7 +6184,7 @@
         <v>111</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D169" s="2">
         <v>0.53500000000000003</v>
@@ -6222,7 +6216,7 @@
         <v>110</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D170" s="2">
         <v>0.53900000000000003</v>
@@ -6254,7 +6248,7 @@
         <v>108</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D171" s="2">
         <v>0.54400000000000004</v>
@@ -6286,7 +6280,7 @@
         <v>108</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D172" s="2">
         <v>0.47399999999999998</v>
@@ -6318,7 +6312,7 @@
         <v>107</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D173" s="2">
         <v>0.46899999999999997</v>
@@ -6350,7 +6344,7 @@
         <v>105</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D174" s="2">
         <v>0.45900000000000002</v>
@@ -6382,7 +6376,7 @@
         <v>105</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D175" s="2">
         <v>0.50600000000000001</v>
@@ -6414,7 +6408,7 @@
         <v>103</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D176" s="2">
         <v>0.50600000000000001</v>
@@ -6446,7 +6440,7 @@
         <v>102</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D177" s="2">
         <v>0.50700000000000001</v>
@@ -6478,7 +6472,7 @@
         <v>102</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D178" s="2">
         <v>0.41899999999999998</v>
@@ -6510,7 +6504,7 @@
         <v>101</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D179" s="2">
         <v>0.38500000000000001</v>
@@ -6542,7 +6536,7 @@
         <v>95</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D180" s="2">
         <v>0.36099999999999999</v>
@@ -6574,7 +6568,7 @@
         <v>95</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D181" s="2">
         <v>0.307</v>
@@ -6606,7 +6600,7 @@
         <v>94</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D182" s="2">
         <v>0.311</v>
@@ -6638,7 +6632,7 @@
         <v>92</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D183" s="2">
         <v>0.307</v>
@@ -6670,7 +6664,7 @@
         <v>92</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D184" s="2">
         <v>0.223</v>
@@ -6702,7 +6696,7 @@
         <v>91</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D185" s="2">
         <v>0.224</v>
@@ -6734,7 +6728,7 @@
         <v>89</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D186" s="2">
         <v>0.22500000000000001</v>
@@ -6766,7 +6760,7 @@
         <v>88</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D187" s="2">
         <v>0.17499999999999999</v>
@@ -6798,7 +6792,7 @@
         <v>86</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D188" s="2">
         <v>0.17899999999999999</v>
@@ -6830,7 +6824,7 @@
         <v>83</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D189" s="2">
         <v>0.17100000000000001</v>
@@ -6862,7 +6856,7 @@
         <v>72</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D190" s="2">
         <v>0.11899999999999999</v>
@@ -6894,7 +6888,7 @@
         <v>70</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D191" s="2">
         <v>0.11600000000000001</v>
@@ -6926,7 +6920,7 @@
         <v>64</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D192" s="2">
         <v>0.12</v>
@@ -6958,7 +6952,7 @@
         <v>49</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D193" s="2">
         <v>9.5000000000000001E-2</v>
@@ -6990,7 +6984,7 @@
         <v>47</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D194" s="2">
         <v>9.4E-2</v>
@@ -7022,7 +7016,7 @@
         <v>42</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D195" s="2">
         <v>9.9000000000000005E-2</v>
@@ -7240,7 +7234,7 @@
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B202" s="8"/>
       <c r="C202" s="8"/>
@@ -7451,7 +7445,7 @@
         <v>89</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D209" s="2">
         <v>0.2</v>
@@ -7483,7 +7477,7 @@
         <v>88</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D210" s="2">
         <v>0.20100000000000001</v>
@@ -7515,7 +7509,7 @@
         <v>87</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D211" s="2">
         <v>0.20200000000000001</v>
@@ -7547,7 +7541,7 @@
         <v>87</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D212" s="2">
         <v>0.2</v>
@@ -7579,7 +7573,7 @@
         <v>86</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D213" s="2">
         <v>0.20100000000000001</v>
@@ -7611,7 +7605,7 @@
         <v>85</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D214" s="2">
         <v>0.20300000000000001</v>
@@ -7643,7 +7637,7 @@
         <v>81</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D215" s="2">
         <v>0.19800000000000001</v>
@@ -7675,7 +7669,7 @@
         <v>80</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D216" s="2">
         <v>0.19900000000000001</v>
@@ -7707,7 +7701,7 @@
         <v>79</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D217" s="2">
         <v>0.20200000000000001</v>
@@ -7739,7 +7733,7 @@
         <v>79</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D218" s="2">
         <v>0.188</v>
@@ -7771,7 +7765,7 @@
         <v>78</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D219" s="2">
         <v>0.188</v>
@@ -7803,7 +7797,7 @@
         <v>77</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D220" s="2">
         <v>0.188</v>
@@ -8501,7 +8495,7 @@
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" s="8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B242" s="8"/>
       <c r="C242" s="8"/>
@@ -9762,7 +9756,7 @@
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" s="8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B282" s="8"/>
       <c r="C282" s="8"/>
@@ -9781,7 +9775,7 @@
         <v>120</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D283" s="2">
         <v>0.85399999999999998</v>
@@ -9813,7 +9807,7 @@
         <v>119</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D284" s="2">
         <v>0.85299999999999998</v>
@@ -9845,7 +9839,7 @@
         <v>118</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D285" s="2">
         <v>0.83399999999999996</v>
@@ -11023,7 +11017,7 @@
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A322" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B322" s="8"/>
       <c r="C322" s="8"/>
@@ -11067,31 +11061,31 @@
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A324" s="9">
+      <c r="A324" s="1">
         <v>2</v>
       </c>
-      <c r="B324" s="9">
+      <c r="B324" s="1">
         <v>115</v>
       </c>
-      <c r="C324" s="10">
+      <c r="C324" s="2">
         <v>-0.11899999999999999</v>
       </c>
-      <c r="D324" s="10">
+      <c r="D324" s="2">
         <v>0.84799999999999998</v>
       </c>
-      <c r="E324" s="10">
+      <c r="E324" s="2">
         <v>-2.9</v>
       </c>
-      <c r="F324" s="10">
+      <c r="F324" s="2">
         <v>-0.2</v>
       </c>
-      <c r="G324" s="10">
-        <v>0</v>
-      </c>
-      <c r="H324" s="10">
+      <c r="G324" s="2">
+        <v>0</v>
+      </c>
+      <c r="H324" s="2">
         <v>0.2</v>
       </c>
-      <c r="I324" s="10">
+      <c r="I324" s="2">
         <v>1.2</v>
       </c>
       <c r="J324" s="1" t="s">
@@ -11099,1151 +11093,1151 @@
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A325" s="9">
+      <c r="A325" s="1">
         <v>3</v>
       </c>
-      <c r="B325" s="9">
+      <c r="B325" s="1">
         <v>114</v>
       </c>
-      <c r="C325" s="10" t="s">
+      <c r="C325" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D325" s="2">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="E325" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="F325" s="2">
+        <v>-0.2</v>
+      </c>
+      <c r="G325" s="2">
+        <v>0</v>
+      </c>
+      <c r="H325" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I325" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="J325" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A326" s="1">
+        <v>4</v>
+      </c>
+      <c r="B326" s="1">
+        <v>114</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D326" s="2">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="E326" s="2">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="F326" s="2">
+        <v>-0.4</v>
+      </c>
+      <c r="G326" s="2">
+        <v>0</v>
+      </c>
+      <c r="H326" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I326" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="J326" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A327" s="1">
+        <v>5</v>
+      </c>
+      <c r="B327" s="1">
+        <v>113</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D327" s="2">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="E327" s="2">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="F327" s="2">
+        <v>-0.3</v>
+      </c>
+      <c r="G327" s="2">
+        <v>0</v>
+      </c>
+      <c r="H327" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I327" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="J327" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A328" s="1">
+        <v>6</v>
+      </c>
+      <c r="B328" s="1">
+        <v>111</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D328" s="2">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="E328" s="2">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="F328" s="2">
+        <v>-0.4</v>
+      </c>
+      <c r="G328" s="2">
+        <v>0</v>
+      </c>
+      <c r="H328" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I328" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="J328" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A329" s="1">
+        <v>7</v>
+      </c>
+      <c r="B329" s="1">
+        <v>111</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D329" s="2">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="E329" s="2">
+        <v>-2.4</v>
+      </c>
+      <c r="F329" s="2">
+        <v>-0.3</v>
+      </c>
+      <c r="G329" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="H329" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I329" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="J329" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A330" s="1">
+        <v>8</v>
+      </c>
+      <c r="B330" s="1">
+        <v>110</v>
+      </c>
+      <c r="C330" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D325" s="10">
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="E325" s="10">
+      <c r="D330" s="2">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="E330" s="2">
+        <v>-2.4</v>
+      </c>
+      <c r="F330" s="2">
+        <v>-0.3</v>
+      </c>
+      <c r="G330" s="2">
+        <v>-0.05</v>
+      </c>
+      <c r="H330" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I330" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="J330" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A331" s="1">
+        <v>9</v>
+      </c>
+      <c r="B331" s="1">
+        <v>108</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D331" s="2">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="E331" s="2">
+        <v>-2.4</v>
+      </c>
+      <c r="F331" s="2">
+        <v>-0.3</v>
+      </c>
+      <c r="G331" s="2">
+        <v>0</v>
+      </c>
+      <c r="H331" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I331" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="J331" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A332" s="1">
+        <v>10</v>
+      </c>
+      <c r="B332" s="1">
+        <v>108</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D332" s="2">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="E332" s="2">
+        <v>-2.4</v>
+      </c>
+      <c r="F332" s="2">
+        <v>-0.3</v>
+      </c>
+      <c r="G332" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="H332" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I332" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J332" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A333" s="1">
+        <v>11</v>
+      </c>
+      <c r="B333" s="1">
+        <v>107</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D333" s="2">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="E333" s="2">
+        <v>-2.4</v>
+      </c>
+      <c r="F333" s="2">
+        <v>-0.3</v>
+      </c>
+      <c r="G333" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="H333" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I333" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="J333" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A334" s="1">
+        <v>12</v>
+      </c>
+      <c r="B334" s="1">
+        <v>105</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D334" s="2">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="E334" s="2">
+        <v>-2.4</v>
+      </c>
+      <c r="F334" s="2">
+        <v>-0.3</v>
+      </c>
+      <c r="G334" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="H334" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I334" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="J334" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A335" s="1">
+        <v>13</v>
+      </c>
+      <c r="B335" s="1">
+        <v>101</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D335" s="2">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="E335" s="2">
+        <v>-1.7</v>
+      </c>
+      <c r="F335" s="2">
+        <v>-0.3</v>
+      </c>
+      <c r="G335" s="2">
+        <v>0</v>
+      </c>
+      <c r="H335" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I335" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="J335" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A336" s="1">
+        <v>14</v>
+      </c>
+      <c r="B336" s="1">
+        <v>99</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D336" s="2">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="E336" s="2">
+        <v>-4.5</v>
+      </c>
+      <c r="F336" s="2">
+        <v>-0.3</v>
+      </c>
+      <c r="G336" s="2">
+        <v>0</v>
+      </c>
+      <c r="H336" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I336" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="J336" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A337" s="1">
+        <v>15</v>
+      </c>
+      <c r="B337" s="1">
+        <v>98</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D337" s="2">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="E337" s="2">
+        <v>-4.5</v>
+      </c>
+      <c r="F337" s="2">
+        <v>-0.3</v>
+      </c>
+      <c r="G337" s="2">
+        <v>0</v>
+      </c>
+      <c r="H337" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I337" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="J337" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A338" s="1">
+        <v>16</v>
+      </c>
+      <c r="B338" s="1">
+        <v>98</v>
+      </c>
+      <c r="C338" s="2">
+        <v>-7.3999999999999996E-2</v>
+      </c>
+      <c r="D338" s="2">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="E338" s="2">
+        <v>-4.5</v>
+      </c>
+      <c r="F338" s="2">
+        <v>-0.2</v>
+      </c>
+      <c r="G338" s="2">
+        <v>0</v>
+      </c>
+      <c r="H338" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I338" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="J338" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A339" s="1">
+        <v>17</v>
+      </c>
+      <c r="B339" s="1">
+        <v>97</v>
+      </c>
+      <c r="C339" s="2">
+        <v>-6.3E-2</v>
+      </c>
+      <c r="D339" s="2">
+        <v>0.628</v>
+      </c>
+      <c r="E339" s="2">
+        <v>-4.5</v>
+      </c>
+      <c r="F339" s="2">
+        <v>-0.2</v>
+      </c>
+      <c r="G339" s="2">
+        <v>0</v>
+      </c>
+      <c r="H339" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I339" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="J339" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A340" s="1">
+        <v>18</v>
+      </c>
+      <c r="B340" s="1">
+        <v>95</v>
+      </c>
+      <c r="C340" s="2">
+        <v>-6.2E-2</v>
+      </c>
+      <c r="D340" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="E340" s="2">
+        <v>-4.5</v>
+      </c>
+      <c r="F340" s="2">
+        <v>-0.2</v>
+      </c>
+      <c r="G340" s="2">
+        <v>0</v>
+      </c>
+      <c r="H340" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I340" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="J340" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A341" s="1">
+        <v>19</v>
+      </c>
+      <c r="B341" s="1">
+        <v>95</v>
+      </c>
+      <c r="C341" s="2">
+        <v>-5.1999999999999998E-2</v>
+      </c>
+      <c r="D341" s="2">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="E341" s="2">
+        <v>-4.5</v>
+      </c>
+      <c r="F341" s="2">
+        <v>-0.2</v>
+      </c>
+      <c r="G341" s="2">
+        <v>0</v>
+      </c>
+      <c r="H341" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I341" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="J341" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A342" s="1">
+        <v>20</v>
+      </c>
+      <c r="B342" s="1">
+        <v>94</v>
+      </c>
+      <c r="C342" s="2">
+        <v>-3.2000000000000001E-2</v>
+      </c>
+      <c r="D342" s="2">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="E342" s="2">
+        <v>-4.5</v>
+      </c>
+      <c r="F342" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="G342" s="2">
+        <v>0</v>
+      </c>
+      <c r="H342" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I342" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="J342" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A343" s="1">
+        <v>21</v>
+      </c>
+      <c r="B343" s="1">
+        <v>92</v>
+      </c>
+      <c r="C343" s="2">
+        <v>-2.1999999999999999E-2</v>
+      </c>
+      <c r="D343" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E343" s="2">
+        <v>-4.5</v>
+      </c>
+      <c r="F343" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="G343" s="2">
+        <v>0</v>
+      </c>
+      <c r="H343" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I343" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="J343" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A344" s="1">
+        <v>22</v>
+      </c>
+      <c r="B344" s="1">
+        <v>92</v>
+      </c>
+      <c r="C344" s="2">
+        <v>-4.8000000000000001E-2</v>
+      </c>
+      <c r="D344" s="2">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="E344" s="2">
+        <v>-3.1</v>
+      </c>
+      <c r="F344" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="G344" s="2">
+        <v>0</v>
+      </c>
+      <c r="H344" s="2">
+        <v>0</v>
+      </c>
+      <c r="I344" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="J344" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A345" s="1">
+        <v>23</v>
+      </c>
+      <c r="B345" s="1">
+        <v>91</v>
+      </c>
+      <c r="C345" s="2">
+        <v>-2.9000000000000001E-2</v>
+      </c>
+      <c r="D345" s="2">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="E345" s="2">
+        <v>-3.1</v>
+      </c>
+      <c r="F345" s="2">
+        <v>0</v>
+      </c>
+      <c r="G345" s="2">
+        <v>0</v>
+      </c>
+      <c r="H345" s="2">
+        <v>0</v>
+      </c>
+      <c r="I345" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="J345" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A346" s="1">
+        <v>24</v>
+      </c>
+      <c r="B346" s="1">
+        <v>89</v>
+      </c>
+      <c r="C346" s="2">
+        <v>-4.4999999999999998E-2</v>
+      </c>
+      <c r="D346" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="E346" s="2">
+        <v>-3.1</v>
+      </c>
+      <c r="F346" s="2">
+        <v>0</v>
+      </c>
+      <c r="G346" s="2">
+        <v>0</v>
+      </c>
+      <c r="H346" s="2">
+        <v>0</v>
+      </c>
+      <c r="I346" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="J346" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A347" s="1">
+        <v>25</v>
+      </c>
+      <c r="B347" s="1">
+        <v>84</v>
+      </c>
+      <c r="C347" s="2">
+        <v>-5.5E-2</v>
+      </c>
+      <c r="D347" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="E347" s="2">
         <v>-2.9</v>
       </c>
-      <c r="F325" s="10">
+      <c r="F347" s="2">
+        <v>0</v>
+      </c>
+      <c r="G347" s="2">
+        <v>0</v>
+      </c>
+      <c r="H347" s="2">
+        <v>0</v>
+      </c>
+      <c r="I347" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J347" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A348" s="1">
+        <v>26</v>
+      </c>
+      <c r="B348" s="1">
+        <v>82</v>
+      </c>
+      <c r="C348" s="2">
+        <v>-4.8000000000000001E-2</v>
+      </c>
+      <c r="D348" s="2">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="E348" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="F348" s="2">
+        <v>0</v>
+      </c>
+      <c r="G348" s="2">
+        <v>0</v>
+      </c>
+      <c r="H348" s="2">
+        <v>0</v>
+      </c>
+      <c r="I348" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J348" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A349" s="1">
+        <v>27</v>
+      </c>
+      <c r="B349" s="1">
+        <v>79</v>
+      </c>
+      <c r="C349" s="2">
+        <v>-4.3999999999999997E-2</v>
+      </c>
+      <c r="D349" s="2">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="E349" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="F349" s="2">
+        <v>0</v>
+      </c>
+      <c r="G349" s="2">
+        <v>0</v>
+      </c>
+      <c r="H349" s="2">
+        <v>0</v>
+      </c>
+      <c r="I349" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J349" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A350" s="1">
+        <v>28</v>
+      </c>
+      <c r="B350" s="1">
+        <v>68</v>
+      </c>
+      <c r="C350" s="2">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+      <c r="D350" s="2">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="E350" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="F350" s="2">
+        <v>0</v>
+      </c>
+      <c r="G350" s="2">
+        <v>0</v>
+      </c>
+      <c r="H350" s="2">
+        <v>0</v>
+      </c>
+      <c r="I350" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J350" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A351" s="1">
+        <v>29</v>
+      </c>
+      <c r="B351" s="1">
+        <v>67</v>
+      </c>
+      <c r="C351" s="2">
+        <v>-1.9E-2</v>
+      </c>
+      <c r="D351" s="2">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="E351" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="F351" s="2">
+        <v>0</v>
+      </c>
+      <c r="G351" s="2">
+        <v>0</v>
+      </c>
+      <c r="H351" s="2">
+        <v>0</v>
+      </c>
+      <c r="I351" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J351" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A352" s="1">
+        <v>30</v>
+      </c>
+      <c r="B352" s="1">
+        <v>64</v>
+      </c>
+      <c r="C352" s="2">
+        <v>-2.3E-2</v>
+      </c>
+      <c r="D352" s="2">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="E352" s="2">
+        <v>-2.9</v>
+      </c>
+      <c r="F352" s="2">
+        <v>0</v>
+      </c>
+      <c r="G352" s="2">
+        <v>0</v>
+      </c>
+      <c r="H352" s="2">
+        <v>0</v>
+      </c>
+      <c r="I352" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J352" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A353" s="1">
+        <v>31</v>
+      </c>
+      <c r="B353" s="1">
+        <v>49</v>
+      </c>
+      <c r="C353" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="D353" s="2">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="E353" s="2">
+        <v>-0.3</v>
+      </c>
+      <c r="F353" s="2">
+        <v>0</v>
+      </c>
+      <c r="G353" s="2">
+        <v>0</v>
+      </c>
+      <c r="H353" s="2">
+        <v>0</v>
+      </c>
+      <c r="I353" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J353" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A354" s="1">
+        <v>32</v>
+      </c>
+      <c r="B354" s="1">
+        <v>47</v>
+      </c>
+      <c r="C354" s="2">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D354" s="2">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="E354" s="2">
+        <v>-0.3</v>
+      </c>
+      <c r="F354" s="2">
+        <v>0</v>
+      </c>
+      <c r="G354" s="2">
+        <v>0</v>
+      </c>
+      <c r="H354" s="2">
+        <v>0</v>
+      </c>
+      <c r="I354" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J354" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A355" s="1">
+        <v>33</v>
+      </c>
+      <c r="B355" s="1">
+        <v>42</v>
+      </c>
+      <c r="C355" s="2">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D355" s="2">
+        <v>0.157</v>
+      </c>
+      <c r="E355" s="2">
+        <v>-0.3</v>
+      </c>
+      <c r="F355" s="2">
+        <v>0</v>
+      </c>
+      <c r="G355" s="2">
+        <v>0</v>
+      </c>
+      <c r="H355" s="2">
+        <v>0</v>
+      </c>
+      <c r="I355" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J355" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A356" s="1">
+        <v>34</v>
+      </c>
+      <c r="B356" s="1">
+        <v>29</v>
+      </c>
+      <c r="C356" s="2">
+        <v>3.1E-2</v>
+      </c>
+      <c r="D356" s="2">
+        <v>0.158</v>
+      </c>
+      <c r="E356" s="2">
         <v>-0.2</v>
       </c>
-      <c r="G325" s="10">
-        <v>0</v>
-      </c>
-      <c r="H325" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="I325" s="10">
-        <v>1.2</v>
-      </c>
-      <c r="J325" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A326" s="9">
-        <v>4</v>
-      </c>
-      <c r="B326" s="9">
-        <v>114</v>
-      </c>
-      <c r="C326" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D326" s="10">
-        <v>0.77100000000000002</v>
-      </c>
-      <c r="E326" s="10">
-        <v>-2.2999999999999998</v>
-      </c>
-      <c r="F326" s="10">
-        <v>-0.4</v>
-      </c>
-      <c r="G326" s="10">
-        <v>0</v>
-      </c>
-      <c r="H326" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="I326" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="J326" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A327" s="9">
-        <v>5</v>
-      </c>
-      <c r="B327" s="9">
-        <v>113</v>
-      </c>
-      <c r="C327" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="D327" s="10">
-        <v>0.77700000000000002</v>
-      </c>
-      <c r="E327" s="10">
-        <v>-2.2999999999999998</v>
-      </c>
-      <c r="F327" s="10">
-        <v>-0.3</v>
-      </c>
-      <c r="G327" s="10">
-        <v>0</v>
-      </c>
-      <c r="H327" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="I327" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="J327" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A328" s="9">
-        <v>6</v>
-      </c>
-      <c r="B328" s="9">
-        <v>111</v>
-      </c>
-      <c r="C328" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D328" s="10">
-        <v>0.78200000000000003</v>
-      </c>
-      <c r="E328" s="10">
-        <v>-2.2999999999999998</v>
-      </c>
-      <c r="F328" s="10">
-        <v>-0.4</v>
-      </c>
-      <c r="G328" s="10">
-        <v>0</v>
-      </c>
-      <c r="H328" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="I328" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="J328" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A329" s="9">
-        <v>7</v>
-      </c>
-      <c r="B329" s="9">
-        <v>111</v>
-      </c>
-      <c r="C329" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D329" s="10">
-        <v>0.77900000000000003</v>
-      </c>
-      <c r="E329" s="10">
-        <v>-2.4</v>
-      </c>
-      <c r="F329" s="10">
-        <v>-0.3</v>
-      </c>
-      <c r="G329" s="10">
-        <v>-0.1</v>
-      </c>
-      <c r="H329" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="I329" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="J329" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A330" s="9">
-        <v>8</v>
-      </c>
-      <c r="B330" s="9">
-        <v>110</v>
-      </c>
-      <c r="C330" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D330" s="10">
-        <v>0.77800000000000002</v>
-      </c>
-      <c r="E330" s="10">
-        <v>-2.4</v>
-      </c>
-      <c r="F330" s="10">
-        <v>-0.3</v>
-      </c>
-      <c r="G330" s="10">
-        <v>-0.05</v>
-      </c>
-      <c r="H330" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="I330" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="J330" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A331" s="9">
-        <v>9</v>
-      </c>
-      <c r="B331" s="9">
-        <v>108</v>
-      </c>
-      <c r="C331" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D331" s="10">
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="E331" s="10">
-        <v>-2.4</v>
-      </c>
-      <c r="F331" s="10">
-        <v>-0.3</v>
-      </c>
-      <c r="G331" s="10">
-        <v>0</v>
-      </c>
-      <c r="H331" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="I331" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="J331" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A332" s="9">
+      <c r="F356" s="2">
+        <v>0</v>
+      </c>
+      <c r="G356" s="2">
+        <v>0</v>
+      </c>
+      <c r="H356" s="2">
+        <v>0</v>
+      </c>
+      <c r="I356" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J356" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A357" s="1">
+        <v>35</v>
+      </c>
+      <c r="B357" s="1">
+        <v>27</v>
+      </c>
+      <c r="C357" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="D357" s="2">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="E357" s="2">
+        <v>-0.2</v>
+      </c>
+      <c r="F357" s="2">
+        <v>0</v>
+      </c>
+      <c r="G357" s="2">
+        <v>0</v>
+      </c>
+      <c r="H357" s="2">
+        <v>0</v>
+      </c>
+      <c r="I357" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J357" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A358" s="1">
+        <v>36</v>
+      </c>
+      <c r="B358" s="1">
+        <v>24</v>
+      </c>
+      <c r="C358" s="2">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D358" s="2">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="E358" s="2">
+        <v>-0.2</v>
+      </c>
+      <c r="F358" s="2">
+        <v>0</v>
+      </c>
+      <c r="G358" s="2">
+        <v>0</v>
+      </c>
+      <c r="H358" s="2">
+        <v>0</v>
+      </c>
+      <c r="I358" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J358" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A359" s="1">
+        <v>37</v>
+      </c>
+      <c r="B359" s="1">
+        <v>11</v>
+      </c>
+      <c r="C359" s="2">
+        <v>0</v>
+      </c>
+      <c r="D359" s="2">
+        <v>0</v>
+      </c>
+      <c r="E359" s="2">
+        <v>0</v>
+      </c>
+      <c r="F359" s="2">
+        <v>0</v>
+      </c>
+      <c r="G359" s="2">
+        <v>0</v>
+      </c>
+      <c r="H359" s="2">
+        <v>0</v>
+      </c>
+      <c r="I359" s="2">
+        <v>0</v>
+      </c>
+      <c r="J359" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A360" s="1">
+        <v>38</v>
+      </c>
+      <c r="B360" s="1">
         <v>10</v>
       </c>
-      <c r="B332" s="9">
-        <v>108</v>
-      </c>
-      <c r="C332" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D332" s="10">
-        <v>0.71599999999999997</v>
-      </c>
-      <c r="E332" s="10">
-        <v>-2.4</v>
-      </c>
-      <c r="F332" s="10">
-        <v>-0.3</v>
-      </c>
-      <c r="G332" s="10">
-        <v>-0.1</v>
-      </c>
-      <c r="H332" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="I332" s="10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J332" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A333" s="9">
-        <v>11</v>
-      </c>
-      <c r="B333" s="9">
-        <v>107</v>
-      </c>
-      <c r="C333" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="D333" s="10">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="E333" s="10">
-        <v>-2.4</v>
-      </c>
-      <c r="F333" s="10">
-        <v>-0.3</v>
-      </c>
-      <c r="G333" s="10">
-        <v>-0.1</v>
-      </c>
-      <c r="H333" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="I333" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="J333" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A334" s="9">
-        <v>12</v>
-      </c>
-      <c r="B334" s="9">
-        <v>105</v>
-      </c>
-      <c r="C334" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D334" s="10">
-        <v>0.72399999999999998</v>
-      </c>
-      <c r="E334" s="10">
-        <v>-2.4</v>
-      </c>
-      <c r="F334" s="10">
-        <v>-0.3</v>
-      </c>
-      <c r="G334" s="10">
-        <v>-0.1</v>
-      </c>
-      <c r="H334" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="I334" s="10">
-        <v>1.2</v>
-      </c>
-      <c r="J334" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A335" s="9">
-        <v>13</v>
-      </c>
-      <c r="B335" s="9">
-        <v>101</v>
-      </c>
-      <c r="C335" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="D335" s="10">
-        <v>0.64600000000000002</v>
-      </c>
-      <c r="E335" s="10">
-        <v>-1.7</v>
-      </c>
-      <c r="F335" s="10">
-        <v>-0.3</v>
-      </c>
-      <c r="G335" s="10">
-        <v>0</v>
-      </c>
-      <c r="H335" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="I335" s="10">
-        <v>1.2</v>
-      </c>
-      <c r="J335" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A336" s="9">
-        <v>14</v>
-      </c>
-      <c r="B336" s="9">
-        <v>99</v>
-      </c>
-      <c r="C336" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="D336" s="10">
-        <v>0.65300000000000002</v>
-      </c>
-      <c r="E336" s="10">
-        <v>-4.5</v>
-      </c>
-      <c r="F336" s="10">
-        <v>-0.3</v>
-      </c>
-      <c r="G336" s="10">
-        <v>0</v>
-      </c>
-      <c r="H336" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="I336" s="10">
-        <v>1.3</v>
-      </c>
-      <c r="J336" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A337" s="9">
-        <v>15</v>
-      </c>
-      <c r="B337" s="9">
-        <v>98</v>
-      </c>
-      <c r="C337" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D337" s="10">
-        <v>0.65300000000000002</v>
-      </c>
-      <c r="E337" s="10">
-        <v>-4.5</v>
-      </c>
-      <c r="F337" s="10">
-        <v>-0.3</v>
-      </c>
-      <c r="G337" s="10">
-        <v>0</v>
-      </c>
-      <c r="H337" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="I337" s="10">
-        <v>1.3</v>
-      </c>
-      <c r="J337" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A338" s="9">
-        <v>16</v>
-      </c>
-      <c r="B338" s="9">
-        <v>98</v>
-      </c>
-      <c r="C338" s="10">
-        <v>-7.3999999999999996E-2</v>
-      </c>
-      <c r="D338" s="10">
-        <v>0.64200000000000002</v>
-      </c>
-      <c r="E338" s="10">
-        <v>-4.5</v>
-      </c>
-      <c r="F338" s="10">
-        <v>-0.2</v>
-      </c>
-      <c r="G338" s="10">
-        <v>0</v>
-      </c>
-      <c r="H338" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="I338" s="10">
-        <v>1.3</v>
-      </c>
-      <c r="J338" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A339" s="9">
-        <v>17</v>
-      </c>
-      <c r="B339" s="9">
-        <v>97</v>
-      </c>
-      <c r="C339" s="10">
-        <v>-6.3E-2</v>
-      </c>
-      <c r="D339" s="10">
-        <v>0.628</v>
-      </c>
-      <c r="E339" s="10">
-        <v>-4.5</v>
-      </c>
-      <c r="F339" s="10">
-        <v>-0.2</v>
-      </c>
-      <c r="G339" s="10">
-        <v>0</v>
-      </c>
-      <c r="H339" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="I339" s="10">
-        <v>1.3</v>
-      </c>
-      <c r="J339" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A340" s="9">
-        <v>18</v>
-      </c>
-      <c r="B340" s="9">
-        <v>95</v>
-      </c>
-      <c r="C340" s="10">
-        <v>-6.2E-2</v>
-      </c>
-      <c r="D340" s="10">
-        <v>0.625</v>
-      </c>
-      <c r="E340" s="10">
-        <v>-4.5</v>
-      </c>
-      <c r="F340" s="10">
-        <v>-0.2</v>
-      </c>
-      <c r="G340" s="10">
-        <v>0</v>
-      </c>
-      <c r="H340" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="I340" s="10">
-        <v>1.3</v>
-      </c>
-      <c r="J340" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A341" s="9">
-        <v>19</v>
-      </c>
-      <c r="B341" s="9">
-        <v>95</v>
-      </c>
-      <c r="C341" s="10">
-        <v>-5.1999999999999998E-2</v>
-      </c>
-      <c r="D341" s="10">
-        <v>0.60599999999999998</v>
-      </c>
-      <c r="E341" s="10">
-        <v>-4.5</v>
-      </c>
-      <c r="F341" s="10">
-        <v>-0.2</v>
-      </c>
-      <c r="G341" s="10">
-        <v>0</v>
-      </c>
-      <c r="H341" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="I341" s="10">
-        <v>1.3</v>
-      </c>
-      <c r="J341" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A342" s="9">
-        <v>20</v>
-      </c>
-      <c r="B342" s="9">
-        <v>94</v>
-      </c>
-      <c r="C342" s="10">
-        <v>-3.2000000000000001E-2</v>
-      </c>
-      <c r="D342" s="10">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="E342" s="10">
-        <v>-4.5</v>
-      </c>
-      <c r="F342" s="10">
-        <v>-0.1</v>
-      </c>
-      <c r="G342" s="10">
-        <v>0</v>
-      </c>
-      <c r="H342" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="I342" s="10">
-        <v>1.3</v>
-      </c>
-      <c r="J342" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A343" s="9">
-        <v>21</v>
-      </c>
-      <c r="B343" s="9">
-        <v>92</v>
-      </c>
-      <c r="C343" s="10">
-        <v>-2.1999999999999999E-2</v>
-      </c>
-      <c r="D343" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="E343" s="10">
-        <v>-4.5</v>
-      </c>
-      <c r="F343" s="10">
-        <v>-0.1</v>
-      </c>
-      <c r="G343" s="10">
-        <v>0</v>
-      </c>
-      <c r="H343" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="I343" s="10">
-        <v>1.3</v>
-      </c>
-      <c r="J343" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A344" s="9">
-        <v>22</v>
-      </c>
-      <c r="B344" s="9">
-        <v>92</v>
-      </c>
-      <c r="C344" s="10">
-        <v>-4.8000000000000001E-2</v>
-      </c>
-      <c r="D344" s="10">
-        <v>0.46400000000000002</v>
-      </c>
-      <c r="E344" s="10">
-        <v>-3.1</v>
-      </c>
-      <c r="F344" s="10">
-        <v>-0.1</v>
-      </c>
-      <c r="G344" s="10">
-        <v>0</v>
-      </c>
-      <c r="H344" s="10">
-        <v>0</v>
-      </c>
-      <c r="I344" s="10">
-        <v>1.3</v>
-      </c>
-      <c r="J344" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A345" s="9">
-        <v>23</v>
-      </c>
-      <c r="B345" s="9">
-        <v>91</v>
-      </c>
-      <c r="C345" s="10">
-        <v>-2.9000000000000001E-2</v>
-      </c>
-      <c r="D345" s="10">
-        <v>0.45200000000000001</v>
-      </c>
-      <c r="E345" s="10">
-        <v>-3.1</v>
-      </c>
-      <c r="F345" s="10">
-        <v>0</v>
-      </c>
-      <c r="G345" s="10">
-        <v>0</v>
-      </c>
-      <c r="H345" s="10">
-        <v>0</v>
-      </c>
-      <c r="I345" s="10">
-        <v>1.3</v>
-      </c>
-      <c r="J345" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A346" s="9">
-        <v>24</v>
-      </c>
-      <c r="B346" s="9">
-        <v>89</v>
-      </c>
-      <c r="C346" s="10">
-        <v>-4.4999999999999998E-2</v>
-      </c>
-      <c r="D346" s="10">
-        <v>0.44</v>
-      </c>
-      <c r="E346" s="10">
-        <v>-3.1</v>
-      </c>
-      <c r="F346" s="10">
-        <v>0</v>
-      </c>
-      <c r="G346" s="10">
-        <v>0</v>
-      </c>
-      <c r="H346" s="10">
-        <v>0</v>
-      </c>
-      <c r="I346" s="10">
-        <v>1.3</v>
-      </c>
-      <c r="J346" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A347" s="9">
-        <v>25</v>
-      </c>
-      <c r="B347" s="9">
-        <v>84</v>
-      </c>
-      <c r="C347" s="10">
-        <v>-5.5E-2</v>
-      </c>
-      <c r="D347" s="10">
-        <v>0.43</v>
-      </c>
-      <c r="E347" s="10">
-        <v>-2.9</v>
-      </c>
-      <c r="F347" s="10">
-        <v>0</v>
-      </c>
-      <c r="G347" s="10">
-        <v>0</v>
-      </c>
-      <c r="H347" s="10">
-        <v>0</v>
-      </c>
-      <c r="I347" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="J347" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A348" s="9">
-        <v>26</v>
-      </c>
-      <c r="B348" s="9">
-        <v>82</v>
-      </c>
-      <c r="C348" s="10">
-        <v>-4.8000000000000001E-2</v>
-      </c>
-      <c r="D348" s="10">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="E348" s="10">
-        <v>-2.9</v>
-      </c>
-      <c r="F348" s="10">
-        <v>0</v>
-      </c>
-      <c r="G348" s="10">
-        <v>0</v>
-      </c>
-      <c r="H348" s="10">
-        <v>0</v>
-      </c>
-      <c r="I348" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="J348" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A349" s="9">
-        <v>27</v>
-      </c>
-      <c r="B349" s="9">
-        <v>79</v>
-      </c>
-      <c r="C349" s="10">
-        <v>-4.3999999999999997E-2</v>
-      </c>
-      <c r="D349" s="10">
-        <v>0.41799999999999998</v>
-      </c>
-      <c r="E349" s="10">
-        <v>-2.9</v>
-      </c>
-      <c r="F349" s="10">
-        <v>0</v>
-      </c>
-      <c r="G349" s="10">
-        <v>0</v>
-      </c>
-      <c r="H349" s="10">
-        <v>0</v>
-      </c>
-      <c r="I349" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="J349" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A350" s="9">
-        <v>28</v>
-      </c>
-      <c r="B350" s="9">
-        <v>68</v>
-      </c>
-      <c r="C350" s="10">
-        <v>-1.7999999999999999E-2</v>
-      </c>
-      <c r="D350" s="10">
-        <v>0.39100000000000001</v>
-      </c>
-      <c r="E350" s="10">
-        <v>-2.9</v>
-      </c>
-      <c r="F350" s="10">
-        <v>0</v>
-      </c>
-      <c r="G350" s="10">
-        <v>0</v>
-      </c>
-      <c r="H350" s="10">
-        <v>0</v>
-      </c>
-      <c r="I350" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="J350" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A351" s="9">
-        <v>29</v>
-      </c>
-      <c r="B351" s="9">
-        <v>67</v>
-      </c>
-      <c r="C351" s="10">
-        <v>-1.9E-2</v>
-      </c>
-      <c r="D351" s="10">
-        <v>0.39400000000000002</v>
-      </c>
-      <c r="E351" s="10">
-        <v>-2.9</v>
-      </c>
-      <c r="F351" s="10">
-        <v>0</v>
-      </c>
-      <c r="G351" s="10">
-        <v>0</v>
-      </c>
-      <c r="H351" s="10">
-        <v>0</v>
-      </c>
-      <c r="I351" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="J351" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A352" s="9">
-        <v>30</v>
-      </c>
-      <c r="B352" s="9">
-        <v>64</v>
-      </c>
-      <c r="C352" s="10">
-        <v>-2.3E-2</v>
-      </c>
-      <c r="D352" s="10">
-        <v>0.40200000000000002</v>
-      </c>
-      <c r="E352" s="10">
-        <v>-2.9</v>
-      </c>
-      <c r="F352" s="10">
-        <v>0</v>
-      </c>
-      <c r="G352" s="10">
-        <v>0</v>
-      </c>
-      <c r="H352" s="10">
-        <v>0</v>
-      </c>
-      <c r="I352" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="J352" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A353" s="9">
-        <v>31</v>
-      </c>
-      <c r="B353" s="9">
-        <v>49</v>
-      </c>
-      <c r="C353" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D353" s="10">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="E353" s="10">
-        <v>-0.3</v>
-      </c>
-      <c r="F353" s="10">
-        <v>0</v>
-      </c>
-      <c r="G353" s="10">
-        <v>0</v>
-      </c>
-      <c r="H353" s="10">
-        <v>0</v>
-      </c>
-      <c r="I353" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="J353" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A354" s="9">
-        <v>32</v>
-      </c>
-      <c r="B354" s="9">
-        <v>47</v>
-      </c>
-      <c r="C354" s="10">
-        <v>1.9E-2</v>
-      </c>
-      <c r="D354" s="10">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="E354" s="10">
-        <v>-0.3</v>
-      </c>
-      <c r="F354" s="10">
-        <v>0</v>
-      </c>
-      <c r="G354" s="10">
-        <v>0</v>
-      </c>
-      <c r="H354" s="10">
-        <v>0</v>
-      </c>
-      <c r="I354" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="J354" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A355" s="9">
-        <v>33</v>
-      </c>
-      <c r="B355" s="9">
-        <v>42</v>
-      </c>
-      <c r="C355" s="10">
-        <v>1.9E-2</v>
-      </c>
-      <c r="D355" s="10">
-        <v>0.157</v>
-      </c>
-      <c r="E355" s="10">
-        <v>-0.3</v>
-      </c>
-      <c r="F355" s="10">
-        <v>0</v>
-      </c>
-      <c r="G355" s="10">
-        <v>0</v>
-      </c>
-      <c r="H355" s="10">
-        <v>0</v>
-      </c>
-      <c r="I355" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="J355" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A356" s="9">
-        <v>34</v>
-      </c>
-      <c r="B356" s="9">
-        <v>29</v>
-      </c>
-      <c r="C356" s="10">
-        <v>3.1E-2</v>
-      </c>
-      <c r="D356" s="10">
-        <v>0.158</v>
-      </c>
-      <c r="E356" s="10">
-        <v>-0.2</v>
-      </c>
-      <c r="F356" s="10">
-        <v>0</v>
-      </c>
-      <c r="G356" s="10">
-        <v>0</v>
-      </c>
-      <c r="H356" s="10">
-        <v>0</v>
-      </c>
-      <c r="I356" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="J356" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A357" s="9">
-        <v>35</v>
-      </c>
-      <c r="B357" s="9">
-        <v>27</v>
-      </c>
-      <c r="C357" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="D357" s="10">
-        <v>0.16400000000000001</v>
-      </c>
-      <c r="E357" s="10">
-        <v>-0.2</v>
-      </c>
-      <c r="F357" s="10">
-        <v>0</v>
-      </c>
-      <c r="G357" s="10">
-        <v>0</v>
-      </c>
-      <c r="H357" s="10">
-        <v>0</v>
-      </c>
-      <c r="I357" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="J357" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A358" s="9">
-        <v>36</v>
-      </c>
-      <c r="B358" s="9">
-        <v>24</v>
-      </c>
-      <c r="C358" s="10">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="D358" s="10">
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="E358" s="10">
-        <v>-0.2</v>
-      </c>
-      <c r="F358" s="10">
-        <v>0</v>
-      </c>
-      <c r="G358" s="10">
-        <v>0</v>
-      </c>
-      <c r="H358" s="10">
-        <v>0</v>
-      </c>
-      <c r="I358" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="J358" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A359" s="9">
-        <v>37</v>
-      </c>
-      <c r="B359" s="9">
-        <v>11</v>
-      </c>
-      <c r="C359" s="10">
-        <v>0</v>
-      </c>
-      <c r="D359" s="10">
-        <v>0</v>
-      </c>
-      <c r="E359" s="10">
-        <v>0</v>
-      </c>
-      <c r="F359" s="10">
-        <v>0</v>
-      </c>
-      <c r="G359" s="10">
-        <v>0</v>
-      </c>
-      <c r="H359" s="10">
-        <v>0</v>
-      </c>
-      <c r="I359" s="10">
-        <v>0</v>
-      </c>
-      <c r="J359" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A360" s="9">
-        <v>38</v>
-      </c>
-      <c r="B360" s="9">
-        <v>10</v>
-      </c>
-      <c r="C360" s="10">
-        <v>0</v>
-      </c>
-      <c r="D360" s="10">
-        <v>0</v>
-      </c>
-      <c r="E360" s="10">
-        <v>0</v>
-      </c>
-      <c r="F360" s="10">
-        <v>0</v>
-      </c>
-      <c r="G360" s="10">
-        <v>0</v>
-      </c>
-      <c r="H360" s="10">
-        <v>0</v>
-      </c>
-      <c r="I360" s="10">
+      <c r="C360" s="2">
+        <v>0</v>
+      </c>
+      <c r="D360" s="2">
+        <v>0</v>
+      </c>
+      <c r="E360" s="2">
+        <v>0</v>
+      </c>
+      <c r="F360" s="2">
+        <v>0</v>
+      </c>
+      <c r="G360" s="2">
+        <v>0</v>
+      </c>
+      <c r="H360" s="2">
+        <v>0</v>
+      </c>
+      <c r="I360" s="2">
         <v>0</v>
       </c>
       <c r="J360" s="1" t="s">
@@ -12251,7 +12245,7 @@
       </c>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A361" s="9">
+      <c r="A361" s="1">
         <v>39</v>
       </c>
       <c r="B361" s="6">
